--- a/projects/poba kredi/Hesap_Hareketleri_13082021.xlsx
+++ b/projects/poba kredi/Hesap_Hareketleri_13082021.xlsx
@@ -552,6 +552,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -569,12 +570,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -611,7 +618,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -625,6 +632,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -651,9 +662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>865440</xdr:colOff>
+      <xdr:colOff>865080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -667,7 +678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2704680" cy="571320"/>
+          <a:ext cx="2704320" cy="570960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,15 +700,15 @@
   </sheetPr>
   <dimension ref="A5:E85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="97.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="15.18"/>
   </cols>
@@ -1101,7 +1112,7 @@
       <c r="B33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="3" t="n">
@@ -1339,7 +1350,7 @@
       <c r="B47" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D47" s="3" t="n">
@@ -1390,7 +1401,7 @@
       <c r="B50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D50" s="3" t="n">
@@ -1628,7 +1639,7 @@
       <c r="B64" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D64" s="3" t="n">
@@ -1903,7 +1914,7 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
